--- a/test_files/forward_tests/4-genes_6-edges_artificial-data_Sigmoid_forward.xlsx
+++ b/test_files/forward_tests/4-genes_6-edges_artificial-data_Sigmoid_forward.xlsx
@@ -14,7 +14,7 @@
     <sheet name="network" sheetId="5" r:id="rId5"/>
     <sheet name="network_weights" sheetId="11" r:id="rId6"/>
     <sheet name="optimization_parameters" sheetId="6" r:id="rId7"/>
-    <sheet name="network_b" sheetId="16" r:id="rId8"/>
+    <sheet name="threshold_b" sheetId="16" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
@@ -2055,7 +2055,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/test_files/forward_tests/4-genes_6-edges_artificial-data_Sigmoid_forward.xlsx
+++ b/test_files/forward_tests/4-genes_6-edges_artificial-data_Sigmoid_forward.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="510" yWindow="-30" windowWidth="20220" windowHeight="10920" tabRatio="644" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
     <sheet name="degradation_rates" sheetId="1" r:id="rId2"/>
-    <sheet name="wt" sheetId="17" r:id="rId3"/>
-    <sheet name="dcin5" sheetId="18" r:id="rId4"/>
+    <sheet name="wt_log2_expression" sheetId="17" r:id="rId3"/>
+    <sheet name="dcin5_log2_expression" sheetId="18" r:id="rId4"/>
     <sheet name="network" sheetId="5" r:id="rId5"/>
     <sheet name="network_weights" sheetId="11" r:id="rId6"/>
     <sheet name="optimization_parameters" sheetId="6" r:id="rId7"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>

--- a/test_files/forward_tests/4-genes_6-edges_artificial-data_Sigmoid_forward.xlsx
+++ b/test_files/forward_tests/4-genes_6-edges_artificial-data_Sigmoid_forward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="-30" windowWidth="20220" windowHeight="10920" tabRatio="644" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="510" yWindow="-30" windowWidth="20220" windowHeight="10920" tabRatio="644"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>CIN5</t>
   </si>
@@ -43,33 +43,12 @@
     <t>kk_max</t>
   </si>
   <si>
-    <t>SystematicName</t>
-  </si>
-  <si>
-    <t>StandardName</t>
-  </si>
-  <si>
-    <t>DegradationRate</t>
-  </si>
-  <si>
-    <t>YOR028C</t>
-  </si>
-  <si>
-    <t>YPR104C</t>
-  </si>
-  <si>
-    <t>rows genes affected/cols genes controlling</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
     <t>optimization_parameter</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>MaxIter</t>
   </si>
   <si>
@@ -82,21 +61,12 @@
     <t>TolX</t>
   </si>
   <si>
-    <t>YLR131C</t>
-  </si>
-  <si>
     <t>ACE2</t>
   </si>
   <si>
-    <t>production_rates</t>
-  </si>
-  <si>
     <t>AFT2</t>
   </si>
   <si>
-    <t>YPL202C</t>
-  </si>
-  <si>
     <t>Strain</t>
   </si>
   <si>
@@ -121,13 +91,34 @@
     <t>dcin5</t>
   </si>
   <si>
-    <t>estimateParams</t>
-  </si>
-  <si>
-    <t>makeGraphs</t>
-  </si>
-  <si>
-    <t>simtime</t>
+    <t>targets/regulators</t>
+  </si>
+  <si>
+    <t>threshold_b</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>estimate_params</t>
+  </si>
+  <si>
+    <t>make_graphs</t>
+  </si>
+  <si>
+    <t>expression_timepoints</t>
+  </si>
+  <si>
+    <t>simulation_timepoints</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>degradation_rate</t>
+  </si>
+  <si>
+    <t>production_rate</t>
   </si>
 </sst>
 </file>
@@ -573,189 +564,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
-      <c r="H1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>0.5</v>
       </c>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D4" s="5"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="4"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="4"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="4"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="4"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="4"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="4"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="4"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="4"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="4"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="4"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="4"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="4"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20" s="4"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22"/>
-      <c r="H22"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E24" s="5"/>
+      <c r="G22"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D24" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -772,159 +730,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -941,20 +866,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>27</v>
+      </c>
+      <c r="B1" s="7">
+        <v>0.5</v>
       </c>
       <c r="C1" s="7">
         <v>0.5</v>
@@ -966,7 +889,7 @@
         <v>0.5</v>
       </c>
       <c r="F1" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G1" s="7">
         <v>1</v>
@@ -981,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="K1" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L1" s="7">
         <v>1.5</v>
@@ -992,225 +915,210 @@
       <c r="N1" s="7">
         <v>1.5</v>
       </c>
-      <c r="O1" s="7">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0.60285018874759499</v>
       </c>
       <c r="C2">
-        <v>0.60285018874759499</v>
+        <v>-1.0563868942577499</v>
       </c>
       <c r="D2">
-        <v>-1.0563868942577499</v>
+        <v>0.16531492640327899</v>
       </c>
       <c r="E2">
-        <v>0.16531492640327899</v>
+        <v>-0.38504712808352998</v>
       </c>
       <c r="F2">
-        <v>-0.38504712808352998</v>
+        <v>0.55431891893229901</v>
       </c>
       <c r="G2">
-        <v>0.55431891893229901</v>
+        <v>0.92416608910352605</v>
       </c>
       <c r="H2">
-        <v>0.92416608910352605</v>
+        <v>-0.38966903148669002</v>
       </c>
       <c r="I2">
-        <v>-0.38966903148669002</v>
+        <v>-0.60191241375111604</v>
       </c>
       <c r="J2">
-        <v>-0.60191241375111604</v>
+        <v>0.31300334257760698</v>
       </c>
       <c r="K2">
-        <v>0.31300334257760698</v>
+        <v>0.79827359886549998</v>
       </c>
       <c r="L2">
-        <v>0.79827359886549998</v>
+        <v>0.51634768251613505</v>
       </c>
       <c r="M2">
-        <v>0.51634768251613505</v>
+        <v>-0.42893328499458599</v>
       </c>
       <c r="N2">
-        <v>-0.42893328499458599</v>
-      </c>
-      <c r="O2">
         <v>-1.2219770014641</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>-0.64479965692109298</v>
       </c>
       <c r="C3">
-        <v>-0.64479965692109298</v>
+        <v>1.6034934693920699</v>
       </c>
       <c r="D3">
-        <v>1.6034934693920699</v>
+        <v>-0.69543170327620996</v>
       </c>
       <c r="E3">
-        <v>-0.69543170327620996</v>
+        <v>9.8571535527109996E-2</v>
       </c>
       <c r="F3">
-        <v>9.8571535527109996E-2</v>
+        <v>0.42550982610250199</v>
       </c>
       <c r="G3">
-        <v>0.42550982610250199</v>
+        <v>0.878454299294956</v>
       </c>
       <c r="H3">
-        <v>0.878454299294956</v>
+        <v>1.31817026493499</v>
       </c>
       <c r="I3">
-        <v>1.31817026493499</v>
+        <v>-0.48195721242425299</v>
       </c>
       <c r="J3">
-        <v>-0.48195721242425299</v>
+        <v>-0.43363714349094601</v>
       </c>
       <c r="K3">
-        <v>-0.43363714349094601</v>
+        <v>0.78079025542863301</v>
       </c>
       <c r="L3">
-        <v>0.78079025542863301</v>
+        <v>-0.12786786081564999</v>
       </c>
       <c r="M3">
-        <v>-0.12786786081564999</v>
+        <v>0.97335068916785505</v>
       </c>
       <c r="N3">
-        <v>0.97335068916785505</v>
-      </c>
-      <c r="O3">
         <v>-0.48651707588210702</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>-0.166346924712586</v>
       </c>
-      <c r="D4" s="2">
+      <c r="C4" s="2">
         <v>-9.6062852875021504E-2</v>
       </c>
+      <c r="D4">
+        <v>1.2012029507923101</v>
+      </c>
       <c r="E4">
-        <v>1.2012029507923101</v>
+        <v>1.3571622808386099</v>
       </c>
       <c r="F4">
-        <v>1.3571622808386099</v>
+        <v>-0.42629898330703597</v>
       </c>
       <c r="G4">
-        <v>-0.42629898330703597</v>
+        <v>0.48179894313309501</v>
       </c>
       <c r="H4">
-        <v>0.48179894313309501</v>
+        <v>1.00419907686609</v>
       </c>
       <c r="I4">
-        <v>1.00419907686609</v>
+        <v>1.2901564645642201</v>
       </c>
       <c r="J4">
-        <v>1.2901564645642201</v>
+        <v>2.1523567224794999</v>
       </c>
       <c r="K4">
-        <v>2.1523567224794999</v>
+        <v>2.1587552550650999</v>
       </c>
       <c r="L4">
-        <v>2.1587552550650999</v>
+        <v>0.86588820179576997</v>
       </c>
       <c r="M4">
-        <v>0.86588820179576997</v>
+        <v>2.4539023038221899</v>
       </c>
       <c r="N4">
-        <v>2.4539023038221899</v>
-      </c>
-      <c r="O4">
         <v>1.55526169350673</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
         <v>-9.0734628811451803E-3</v>
       </c>
+      <c r="C5">
+        <v>0.53426370858309002</v>
+      </c>
       <c r="D5">
-        <v>0.53426370858309002</v>
+        <v>-0.25207028286224498</v>
       </c>
       <c r="E5">
-        <v>-0.25207028286224498</v>
+        <v>-0.450225199388952</v>
       </c>
       <c r="F5">
-        <v>-0.450225199388952</v>
+        <v>0.82608430723010395</v>
       </c>
       <c r="G5">
-        <v>0.82608430723010395</v>
+        <v>-0.42389163235463001</v>
       </c>
       <c r="H5">
-        <v>-0.42389163235463001</v>
+        <v>-0.204682116333603</v>
       </c>
       <c r="I5">
-        <v>-0.204682116333603</v>
+        <v>1.00056447777193</v>
       </c>
       <c r="J5">
-        <v>1.00056447777193</v>
+        <v>1.1005617360385E-2</v>
       </c>
       <c r="K5">
-        <v>1.1005617360385E-2</v>
+        <v>1.67033758298535</v>
       </c>
       <c r="L5">
-        <v>1.67033758298535</v>
+        <v>0.67131905883010901</v>
       </c>
       <c r="M5">
-        <v>0.67131905883010901</v>
+        <v>0.366623680254412</v>
       </c>
       <c r="N5">
-        <v>0.366623680254412</v>
-      </c>
-      <c r="O5">
         <v>-0.19414868863404999</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G6" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J10" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G12" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I14" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="I18" s="2"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="F20" s="2"/>
-      <c r="M20" s="2"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+      <c r="L20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1226,20 +1134,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>27</v>
+      </c>
+      <c r="B1" s="7">
+        <v>0.5</v>
       </c>
       <c r="C1" s="7">
         <v>0.5</v>
@@ -1251,7 +1157,7 @@
         <v>0.5</v>
       </c>
       <c r="F1" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G1" s="7">
         <v>1</v>
@@ -1266,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="K1" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L1" s="7">
         <v>1.5</v>
@@ -1277,245 +1183,230 @@
       <c r="N1" s="7">
         <v>1.5</v>
       </c>
-      <c r="O1" s="7">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0.60285018874759499</v>
       </c>
       <c r="C2">
-        <v>0.60285018874759499</v>
+        <v>-1.0563868942577499</v>
       </c>
       <c r="D2">
-        <v>-1.0563868942577499</v>
+        <v>0.16531492640327899</v>
       </c>
       <c r="E2">
-        <v>0.16531492640327899</v>
+        <v>-0.38504712808352998</v>
       </c>
       <c r="F2">
-        <v>-0.38504712808352998</v>
+        <v>0.55431891893229901</v>
       </c>
       <c r="G2">
-        <v>0.55431891893229901</v>
+        <v>0.92416608910352605</v>
       </c>
       <c r="H2">
-        <v>0.92416608910352605</v>
+        <v>-0.38966903148669002</v>
       </c>
       <c r="I2">
-        <v>-0.38966903148669002</v>
+        <v>-0.60191241375111604</v>
       </c>
       <c r="J2">
-        <v>-0.60191241375111604</v>
+        <v>0.31300334257760698</v>
       </c>
       <c r="K2">
-        <v>0.31300334257760698</v>
+        <v>0.79827359886549998</v>
       </c>
       <c r="L2">
-        <v>0.79827359886549998</v>
+        <v>0.51634768251613505</v>
       </c>
       <c r="M2">
-        <v>0.51634768251613505</v>
+        <v>-0.42893328499458599</v>
       </c>
       <c r="N2">
-        <v>-0.42893328499458599</v>
-      </c>
-      <c r="O2">
         <v>-1.2219770014641</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>-0.64479965692109298</v>
       </c>
       <c r="C3">
-        <v>-0.64479965692109298</v>
+        <v>1.6034934693920699</v>
       </c>
       <c r="D3">
-        <v>1.6034934693920699</v>
+        <v>-0.69543170327620996</v>
       </c>
       <c r="E3">
-        <v>-0.69543170327620996</v>
+        <v>9.8571535527109996E-2</v>
       </c>
       <c r="F3">
-        <v>9.8571535527109996E-2</v>
+        <v>0.42550982610250199</v>
       </c>
       <c r="G3">
-        <v>0.42550982610250199</v>
+        <v>0.878454299294956</v>
       </c>
       <c r="H3">
-        <v>0.878454299294956</v>
+        <v>1.31817026493499</v>
       </c>
       <c r="I3">
-        <v>1.31817026493499</v>
+        <v>-0.48195721242425299</v>
       </c>
       <c r="J3">
-        <v>-0.48195721242425299</v>
+        <v>-0.43363714349094601</v>
       </c>
       <c r="K3">
-        <v>-0.43363714349094601</v>
+        <v>0.78079025542863301</v>
       </c>
       <c r="L3">
-        <v>0.78079025542863301</v>
+        <v>-0.12786786081564999</v>
       </c>
       <c r="M3">
-        <v>-0.12786786081564999</v>
+        <v>0.97335068916785505</v>
       </c>
       <c r="N3">
-        <v>0.97335068916785505</v>
-      </c>
-      <c r="O3">
         <v>-0.48651707588210702</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>-0.166346924712586</v>
       </c>
-      <c r="D4" s="2">
+      <c r="C4" s="2">
         <v>-9.6062852875021504E-2</v>
       </c>
+      <c r="D4">
+        <v>1.2012029507923101</v>
+      </c>
       <c r="E4">
-        <v>1.2012029507923101</v>
+        <v>1.3571622808386099</v>
       </c>
       <c r="F4">
-        <v>1.3571622808386099</v>
+        <v>-0.42629898330703597</v>
       </c>
       <c r="G4">
-        <v>-0.42629898330703597</v>
+        <v>0.48179894313309501</v>
       </c>
       <c r="H4">
-        <v>0.48179894313309501</v>
+        <v>1.00419907686609</v>
       </c>
       <c r="I4">
-        <v>1.00419907686609</v>
+        <v>1.2901564645642201</v>
       </c>
       <c r="J4">
-        <v>1.2901564645642201</v>
+        <v>2.1523567224794999</v>
       </c>
       <c r="K4">
-        <v>2.1523567224794999</v>
+        <v>2.1587552550650999</v>
       </c>
       <c r="L4">
-        <v>2.1587552550650999</v>
+        <v>0.86588820179576997</v>
       </c>
       <c r="M4">
-        <v>0.86588820179576997</v>
+        <v>2.4539023038221899</v>
       </c>
       <c r="N4">
-        <v>2.4539023038221899</v>
-      </c>
-      <c r="O4">
         <v>1.55526169350673</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
         <v>-9.0734628811451803E-3</v>
       </c>
+      <c r="C5">
+        <v>0.53426370858309002</v>
+      </c>
       <c r="D5">
-        <v>0.53426370858309002</v>
+        <v>-0.25207028286224498</v>
       </c>
       <c r="E5">
-        <v>-0.25207028286224498</v>
+        <v>-0.450225199388952</v>
       </c>
       <c r="F5">
-        <v>-0.450225199388952</v>
+        <v>0.82608430723010395</v>
       </c>
       <c r="G5">
-        <v>0.82608430723010395</v>
+        <v>-0.42389163235463001</v>
       </c>
       <c r="H5">
-        <v>-0.42389163235463001</v>
+        <v>-0.204682116333603</v>
       </c>
       <c r="I5">
-        <v>-0.204682116333603</v>
+        <v>1.00056447777193</v>
       </c>
       <c r="J5">
-        <v>1.00056447777193</v>
+        <v>1.1005617360385E-2</v>
       </c>
       <c r="K5">
-        <v>1.1005617360385E-2</v>
+        <v>1.67033758298535</v>
       </c>
       <c r="L5">
-        <v>1.67033758298535</v>
+        <v>0.67131905883010901</v>
       </c>
       <c r="M5">
-        <v>0.67131905883010901</v>
+        <v>0.366623680254412</v>
       </c>
       <c r="N5">
-        <v>0.366623680254412</v>
-      </c>
-      <c r="O5">
         <v>-0.19414868863404999</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L7" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="18" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="I19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="I20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="22" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="L22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="F18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="H19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="H20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="K22" s="2"/>
+      <c r="M22" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1533,9 +1424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1561,13 +1450,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -1578,7 +1467,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1595,7 +1484,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -1662,7 +1551,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1688,13 +1577,13 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1722,7 +1611,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>0.5</v>
@@ -1739,7 +1628,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -1806,7 +1695,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1816,22 +1705,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1852,7 +1741,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>1000000</v>
@@ -1860,7 +1749,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
@@ -1868,7 +1757,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>1000000</v>
@@ -1876,7 +1765,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>1.0000000000000001E-5</v>
@@ -1884,15 +1773,15 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="9">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B9" s="9">
         <v>0</v>
@@ -1900,7 +1789,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B10" s="9">
         <v>1</v>
@@ -1908,7 +1797,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B11" s="9">
         <v>0</v>
@@ -1916,7 +1805,7 @@
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B12" s="9">
         <v>1</v>
@@ -1924,7 +1813,7 @@
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B13" s="9">
         <v>0.5</v>
@@ -1938,18 +1827,18 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B15" s="8">
         <v>3</v>
@@ -1960,7 +1849,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B16" s="8">
         <v>0</v>
@@ -1971,7 +1860,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2054,20 +1943,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2075,7 +1967,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>

--- a/test_files/forward_tests/4-genes_6-edges_artificial-data_Sigmoid_forward.xlsx
+++ b/test_files/forward_tests/4-genes_6-edges_artificial-data_Sigmoid_forward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="-30" windowWidth="20220" windowHeight="10920" tabRatio="644"/>
+    <workbookView xWindow="510" yWindow="-30" windowWidth="20220" windowHeight="10920" tabRatio="644" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t>CIN5</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Strain</t>
   </si>
   <si>
-    <t>Deletion</t>
-  </si>
-  <si>
     <t>wt</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>threshold_b</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>estimate_params</t>
   </si>
   <si>
@@ -119,6 +113,12 @@
   </si>
   <si>
     <t>production_rate</t>
+  </si>
+  <si>
+    <t>production_function</t>
+  </si>
+  <si>
+    <t>L_curve</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -578,10 +578,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -745,10 +745,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -874,7 +874,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="7">
         <v>0.5</v>
@@ -1142,7 +1142,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="7">
         <v>0.5</v>
@@ -1450,7 +1450,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -1577,7 +1577,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1694,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1703,27 +1703,15 @@
     <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1731,7 +1719,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1739,7 +1727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1747,7 +1735,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1755,7 +1743,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1763,7 +1751,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1771,96 +1759,93 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B11" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="B16" s="8">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="8">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1951,10 +1936,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
